--- a/расписание.xlsx
+++ b/расписание.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VHE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Cybersecurity_HSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>Понедельник</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>есть презентация</t>
+  </si>
+  <si>
+    <t>ссылка на вебинар</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +459,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -876,9 +891,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1011,6 +1023,126 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1026,124 +1158,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1429,7 +1462,7 @@
   <dimension ref="A1:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,32 +1483,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="101"/>
+      <c r="E1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="61" t="s">
+      <c r="H1" s="101"/>
+      <c r="I1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61" t="s">
+      <c r="J1" s="101"/>
+      <c r="K1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="62"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="101"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1554,34 +1587,34 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="64">
+      <c r="A3" s="94">
         <v>45565</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66">
+      <c r="B3" s="95"/>
+      <c r="C3" s="96">
         <v>45566</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="67">
+      <c r="D3" s="95"/>
+      <c r="E3" s="69">
         <v>45567</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69">
+      <c r="F3" s="97"/>
+      <c r="G3" s="75">
         <v>45568</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="67">
+      <c r="H3" s="71"/>
+      <c r="I3" s="69">
         <v>45569</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="67">
+      <c r="J3" s="71"/>
+      <c r="K3" s="69">
         <v>45570</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="71"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="103"/>
+      <c r="P3" s="62"/>
       <c r="Q3" s="1" t="s">
         <v>89</v>
       </c>
@@ -1627,8 +1660,10 @@
       <c r="M4" s="7"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -1646,72 +1681,72 @@
     <row r="5" spans="1:30" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="58" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="101" t="s">
+      <c r="G5" s="104"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="61" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="11"/>
-      <c r="L5" s="16"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="13"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="72">
+      <c r="A6" s="93">
         <v>45572</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="67">
+      <c r="B6" s="77"/>
+      <c r="C6" s="69">
         <v>45573</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="67">
+      <c r="D6" s="71"/>
+      <c r="E6" s="69">
         <v>45574</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="67">
+      <c r="F6" s="71"/>
+      <c r="G6" s="69">
         <v>45575</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="67">
+      <c r="H6" s="71"/>
+      <c r="I6" s="69">
         <v>45576</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="74">
+      <c r="J6" s="71"/>
+      <c r="K6" s="76">
         <v>45577</v>
       </c>
-      <c r="L6" s="73"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1729,11 +1764,11 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:30" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="13"/>
@@ -1744,7 +1779,7 @@
       <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
         <v>13</v>
@@ -1752,9 +1787,9 @@
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="7"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1773,28 +1808,28 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15" t="s">
+    <row r="8" spans="1:30" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="106"/>
+      <c r="F8" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="22"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="7"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1814,32 +1849,32 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75">
+      <c r="A9" s="91">
         <v>45579</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="67">
+      <c r="B9" s="92"/>
+      <c r="C9" s="69">
         <v>45580</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="77">
+      <c r="D9" s="71"/>
+      <c r="E9" s="81">
         <v>45581</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="77">
+      <c r="F9" s="83"/>
+      <c r="G9" s="81">
         <v>45582</v>
       </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="67">
+      <c r="H9" s="83"/>
+      <c r="I9" s="69">
         <v>45583</v>
       </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="77">
+      <c r="J9" s="71"/>
+      <c r="K9" s="81">
         <v>45584</v>
       </c>
-      <c r="L9" s="78"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="19"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="18"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1857,18 +1892,18 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:30" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="8" t="s">
         <v>14</v>
       </c>
@@ -1881,9 +1916,9 @@
         <v>13</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="32"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1902,28 +1937,28 @@
       <c r="AD10" s="1"/>
     </row>
     <row r="11" spans="1:30" ht="72" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="27" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="32"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="31"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1942,32 +1977,32 @@
       <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="75">
+      <c r="A12" s="91">
         <v>45586</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="67">
+      <c r="B12" s="92"/>
+      <c r="C12" s="69">
         <v>45587</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="77">
+      <c r="D12" s="71"/>
+      <c r="E12" s="81">
         <v>45588</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="67">
+      <c r="F12" s="83"/>
+      <c r="G12" s="69">
         <v>45589</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="67">
+      <c r="H12" s="71"/>
+      <c r="I12" s="69">
         <v>45590</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="77">
+      <c r="J12" s="71"/>
+      <c r="K12" s="81">
         <v>45591</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="78"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="83"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1985,29 +2020,29 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:30" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="13"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="16"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2025,25 +2060,25 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" ht="72" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="38" t="s">
+    <row r="14" spans="1:30" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="38" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="13"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="16"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2062,32 +2097,32 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="80">
+      <c r="A15" s="68">
         <v>45593</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82">
+      <c r="B15" s="65"/>
+      <c r="C15" s="63">
         <v>45594</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="83">
+      <c r="D15" s="65"/>
+      <c r="E15" s="78">
         <v>45595</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="82">
+      <c r="F15" s="79"/>
+      <c r="G15" s="63">
         <v>45596</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82">
+      <c r="H15" s="65"/>
+      <c r="I15" s="63">
         <v>45597</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="85">
+      <c r="J15" s="65"/>
+      <c r="K15" s="88">
         <v>45598</v>
       </c>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="87"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="90"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -2105,25 +2140,25 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
+    <row r="16" spans="1:30" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="27"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="42" t="s">
         <v>33</v>
       </c>
       <c r="K16" s="13" t="s">
@@ -2151,18 +2186,18 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" ht="72" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="38" t="s">
+    <row r="17" spans="1:30" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="27"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="11" t="s">
         <v>38</v>
       </c>
@@ -2198,32 +2233,32 @@
       <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="80">
+      <c r="A18" s="68">
         <v>45600</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="67">
+      <c r="B18" s="65"/>
+      <c r="C18" s="69">
         <v>45601</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="88">
+      <c r="D18" s="71"/>
+      <c r="E18" s="86">
         <v>45602</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="74">
+      <c r="F18" s="87"/>
+      <c r="G18" s="76">
         <v>45603</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="67">
+      <c r="H18" s="77"/>
+      <c r="I18" s="69">
         <v>45604</v>
       </c>
-      <c r="J18" s="70"/>
-      <c r="K18" s="77">
+      <c r="J18" s="71"/>
+      <c r="K18" s="81">
         <v>45605</v>
       </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="78"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2241,26 +2276,26 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
+    <row r="19" spans="1:30" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="45" t="s">
         <v>45</v>
       </c>
       <c r="L19" s="13" t="s">
@@ -2285,15 +2320,15 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" ht="72" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="90" t="s">
+    <row r="20" spans="1:30" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
@@ -2328,32 +2363,32 @@
       <c r="AD20" s="1"/>
     </row>
     <row r="21" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="69">
+      <c r="A21" s="75">
         <v>45607</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="67">
+      <c r="B21" s="71"/>
+      <c r="C21" s="69">
         <v>45608</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="67">
+      <c r="D21" s="71"/>
+      <c r="E21" s="69">
         <v>45609</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="74">
+      <c r="F21" s="71"/>
+      <c r="G21" s="76">
         <v>45610</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="67">
+      <c r="H21" s="77"/>
+      <c r="I21" s="69">
         <v>45611</v>
       </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="77">
+      <c r="J21" s="71"/>
+      <c r="K21" s="81">
         <v>45612</v>
       </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="78"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="83"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2371,30 +2406,30 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="47" t="s">
+    <row r="22" spans="1:30" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="46" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="47" t="s">
         <v>51</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="46" t="s">
+      <c r="K22" s="45" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="13" t="s">
@@ -2422,20 +2457,20 @@
       <c r="AD22" s="1"/>
     </row>
     <row r="23" spans="1:30" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="90" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="91"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="51" t="s">
+      <c r="G23" s="84"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="49" t="s">
         <v>52</v>
       </c>
       <c r="K23" s="11" t="s">
@@ -2444,7 +2479,7 @@
       <c r="L23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="M23" s="52" t="s">
+      <c r="M23" s="51" t="s">
         <v>55</v>
       </c>
       <c r="N23" s="11"/>
@@ -2466,32 +2501,32 @@
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="69">
+      <c r="A24" s="75">
         <v>45614</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="67">
+      <c r="B24" s="71"/>
+      <c r="C24" s="69">
         <v>45615</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="67">
+      <c r="D24" s="71"/>
+      <c r="E24" s="69">
         <v>45616</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="74">
+      <c r="F24" s="71"/>
+      <c r="G24" s="76">
         <v>45617</v>
       </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="67">
+      <c r="H24" s="77"/>
+      <c r="I24" s="69">
         <v>45618</v>
       </c>
-      <c r="J24" s="70"/>
-      <c r="K24" s="67">
+      <c r="J24" s="71"/>
+      <c r="K24" s="69">
         <v>45619</v>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="71"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2509,30 +2544,30 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="48" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="43" t="s">
+      <c r="J25" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="46" t="s">
+      <c r="K25" s="45" t="s">
         <v>58</v>
       </c>
       <c r="L25" s="13" t="s">
@@ -2557,21 +2592,21 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="53"/>
+    <row r="26" spans="1:30" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="52"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="45" t="s">
+      <c r="D26" s="80"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="55" t="s">
+      <c r="J26" s="54" t="s">
         <v>61</v>
       </c>
       <c r="K26" s="13" t="s">
@@ -2600,32 +2635,32 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="69">
+      <c r="A27" s="75">
         <v>45621</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="67">
+      <c r="B27" s="71"/>
+      <c r="C27" s="69">
         <v>45622</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="67">
+      <c r="D27" s="71"/>
+      <c r="E27" s="69">
         <v>45623</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="74">
+      <c r="F27" s="71"/>
+      <c r="G27" s="76">
         <v>45624</v>
       </c>
-      <c r="H27" s="73"/>
-      <c r="I27" s="67">
+      <c r="H27" s="77"/>
+      <c r="I27" s="69">
         <v>45625</v>
       </c>
-      <c r="J27" s="70"/>
-      <c r="K27" s="67">
+      <c r="J27" s="71"/>
+      <c r="K27" s="69">
         <v>45626</v>
       </c>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="71"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2643,27 +2678,27 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
+    <row r="28" spans="1:30" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="46" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H28" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="43" t="s">
+      <c r="J28" s="42" t="s">
         <v>33</v>
       </c>
       <c r="K28" s="13" t="s">
@@ -2671,7 +2706,7 @@
       </c>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-      <c r="N28" s="45"/>
+      <c r="N28" s="44"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2689,21 +2724,21 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="56"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="90" t="s">
+    <row r="29" spans="1:30" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="55"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="45" t="s">
+      <c r="D29" s="67"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="J29" s="44" t="s">
         <v>68</v>
       </c>
       <c r="K29" s="11" t="s">
@@ -2711,7 +2746,7 @@
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
-      <c r="N29" s="45"/>
+      <c r="N29" s="44"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2730,32 +2765,32 @@
       <c r="AD29" s="1"/>
     </row>
     <row r="30" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="69">
+      <c r="A30" s="75">
         <v>45628</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="67">
+      <c r="B30" s="71"/>
+      <c r="C30" s="69">
         <v>45629</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="67">
+      <c r="D30" s="71"/>
+      <c r="E30" s="69">
         <v>45630</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="74">
+      <c r="F30" s="71"/>
+      <c r="G30" s="76">
         <v>45631</v>
       </c>
-      <c r="H30" s="73"/>
-      <c r="I30" s="67">
+      <c r="H30" s="77"/>
+      <c r="I30" s="69">
         <v>45632</v>
       </c>
-      <c r="J30" s="70"/>
-      <c r="K30" s="67">
+      <c r="J30" s="71"/>
+      <c r="K30" s="69">
         <v>45633</v>
       </c>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="71"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2773,41 +2808,41 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="45" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="47" t="s">
         <v>51</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="43" t="s">
+      <c r="J31" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="46" t="s">
+      <c r="K31" s="45" t="s">
         <v>58</v>
       </c>
       <c r="L31" s="13" t="s">
         <v>34</v>
       </c>
       <c r="M31" s="11"/>
-      <c r="N31" s="45"/>
+      <c r="N31" s="44"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2825,35 +2860,35 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="56"/>
+    <row r="32" spans="1:30" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="55"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="91"/>
-      <c r="E32" s="27" t="s">
+      <c r="D32" s="67"/>
+      <c r="E32" s="26" t="s">
         <v>71</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="45" t="s">
+      <c r="G32" s="53"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J32" s="45" t="s">
+      <c r="J32" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="26" t="s">
         <v>74</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2872,32 +2907,32 @@
       <c r="AD32" s="1"/>
     </row>
     <row r="33" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="69">
+      <c r="A33" s="75">
         <v>45635</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="67">
+      <c r="B33" s="71"/>
+      <c r="C33" s="69">
         <v>45636</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="67">
+      <c r="D33" s="71"/>
+      <c r="E33" s="69">
         <v>45637</v>
       </c>
-      <c r="F33" s="70"/>
-      <c r="G33" s="74">
+      <c r="F33" s="71"/>
+      <c r="G33" s="76">
         <v>45638</v>
       </c>
-      <c r="H33" s="73"/>
-      <c r="I33" s="67">
+      <c r="H33" s="77"/>
+      <c r="I33" s="69">
         <v>45639</v>
       </c>
-      <c r="J33" s="70"/>
-      <c r="K33" s="67">
+      <c r="J33" s="71"/>
+      <c r="K33" s="69">
         <v>45640</v>
       </c>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="71"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -2915,9 +2950,9 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
+    <row r="34" spans="1:30" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="13" t="s">
         <v>76</v>
       </c>
@@ -2926,25 +2961,25 @@
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="48" t="s">
+      <c r="H34" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="43" t="s">
+      <c r="I34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="43" t="s">
+      <c r="J34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K34" s="46" t="s">
+      <c r="K34" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="46" t="s">
+      <c r="L34" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="M34" s="36" t="s">
+      <c r="M34" s="35" t="s">
         <v>78</v>
       </c>
       <c r="N34" s="11"/>
@@ -2965,18 +3000,18 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="56"/>
+    <row r="35" spans="1:30" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="55"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="91"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="45" t="s">
+      <c r="D35" s="67"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="44" t="s">
         <v>80</v>
       </c>
       <c r="J35" s="11" t="s">
@@ -2991,7 +3026,7 @@
       <c r="M35" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="N35" s="45"/>
+      <c r="N35" s="44"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -3010,32 +3045,32 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="69">
+      <c r="A36" s="75">
         <v>45642</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="67">
+      <c r="B36" s="71"/>
+      <c r="C36" s="69">
         <v>45643</v>
       </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="74">
+      <c r="D36" s="71"/>
+      <c r="E36" s="76">
         <v>45644</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="83">
+      <c r="F36" s="77"/>
+      <c r="G36" s="78">
         <v>45645</v>
       </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="82">
+      <c r="H36" s="79"/>
+      <c r="I36" s="63">
         <v>45646</v>
       </c>
-      <c r="J36" s="81"/>
-      <c r="K36" s="82">
+      <c r="J36" s="65"/>
+      <c r="K36" s="63">
         <v>45647</v>
       </c>
-      <c r="L36" s="98"/>
-      <c r="M36" s="98"/>
-      <c r="N36" s="81"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="65"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -3053,33 +3088,33 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
+    <row r="37" spans="1:30" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="36"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="43" t="s">
+      <c r="J37" s="42" t="s">
         <v>33</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L37" s="27"/>
+      <c r="L37" s="26"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="45"/>
+      <c r="N37" s="44"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -3097,31 +3132,31 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="72" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="56"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="90" t="s">
+    <row r="38" spans="1:30" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="55"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="91"/>
+      <c r="D38" s="67"/>
       <c r="E38" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="40"/>
+      <c r="F38" s="39"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="44" t="s">
         <v>86</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="L38" s="27"/>
+      <c r="L38" s="26"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="45"/>
+      <c r="N38" s="44"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -3140,32 +3175,32 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="80">
+      <c r="A39" s="68">
         <v>45649</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="82">
+      <c r="B39" s="65"/>
+      <c r="C39" s="63">
         <v>45650</v>
       </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="82">
+      <c r="D39" s="65"/>
+      <c r="E39" s="63">
         <v>45651</v>
       </c>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82">
+      <c r="F39" s="65"/>
+      <c r="G39" s="63">
         <v>45652</v>
       </c>
-      <c r="H39" s="81"/>
-      <c r="I39" s="82">
+      <c r="H39" s="65"/>
+      <c r="I39" s="63">
         <v>45653</v>
       </c>
-      <c r="J39" s="81"/>
-      <c r="K39" s="82">
+      <c r="J39" s="65"/>
+      <c r="K39" s="63">
         <v>45654</v>
       </c>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="81"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="65"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -3183,23 +3218,23 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
+    <row r="40" spans="1:30" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="45"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F40" s="11"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="16"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="15"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="45"/>
+      <c r="J40" s="44"/>
       <c r="K40" s="13"/>
-      <c r="L40" s="27"/>
+      <c r="L40" s="26"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="45"/>
+      <c r="N40" s="44"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -3217,23 +3252,23 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45"/>
+    <row r="41" spans="1:30" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="24"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="16"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="15"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="45"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="27"/>
+      <c r="L41" s="26"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="45"/>
+      <c r="N41" s="44"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -3256,10 +3291,10 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3288,10 +3323,10 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3320,10 +3355,10 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3352,10 +3387,10 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3384,10 +3419,10 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -5109,13 +5144,83 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
@@ -5125,84 +5230,14 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:N36"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
